--- a/templates/osmotrakt.xlsx
+++ b/templates/osmotrakt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\yii2test_ps\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -250,6 +250,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -265,30 +286,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -621,125 +622,126 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="5" width="24.5703125" customWidth="1"/>
+    <col min="1" max="2" width="16.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="20" customWidth="1"/>
+    <col min="4" max="5" width="24.5703125" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+    <row r="1" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -747,34 +749,22 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C5:E5"/>
@@ -785,6 +775,18 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/templates/osmotrakt.xlsx
+++ b/templates/osmotrakt.xlsx
@@ -250,9 +250,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -262,34 +290,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -619,127 +619,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.85546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="20" customWidth="1"/>
-    <col min="4" max="5" width="24.5703125" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="2" width="16.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="7" customWidth="1"/>
+    <col min="4" max="5" width="24.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -749,10 +750,10 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -760,11 +761,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C5:E5"/>
@@ -775,18 +788,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/templates/osmotrakt.xlsx
+++ b/templates/osmotrakt.xlsx
@@ -251,6 +251,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -265,30 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,117 +630,116 @@
     <col min="1" max="2" width="16.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" style="7" customWidth="1"/>
     <col min="4" max="5" width="24.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -750,10 +749,10 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -761,23 +760,11 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C5:E5"/>
@@ -788,6 +775,18 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/templates/osmotrakt.xlsx
+++ b/templates/osmotrakt.xlsx
@@ -251,9 +251,36 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -262,33 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,113 +633,113 @@
     <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+    <row r="1" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -749,10 +749,10 @@
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -760,11 +760,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="C5:E5"/>
@@ -775,18 +787,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
